--- a/JVM中篇/Demo字节码解析.xlsx
+++ b/JVM中篇/Demo字节码解析.xlsx
@@ -13,6 +13,478 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>wanyi</author>
+  </authors>
+  <commentList>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wanyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wanyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wanyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wanyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+4</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wanyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wanyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+6</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wanyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wanyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+8</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wanyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wanyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wanyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+11</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wanyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wanyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+13</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wanyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+14</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wanyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+15</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wanyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+16</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wanyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+17</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wanyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+18</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wanyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+19</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wanyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wanyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+21</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
@@ -124,9 +596,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="00"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -144,6 +616,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -153,7 +639,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,33 +676,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,22 +710,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,30 +732,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,22 +752,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +775,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -321,181 +805,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,8 +996,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,11 +1061,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,235 +1090,191 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1109,7 +1599,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1130,43 +1620,43 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3">
-        <v>0</v>
-      </c>
-      <c r="G1" s="4">
-        <v>0</v>
-      </c>
-      <c r="H1" s="4">
+      <c r="E1" s="5">
+        <v>0</v>
+      </c>
+      <c r="F1" s="5">
+        <v>0</v>
+      </c>
+      <c r="G1" s="6">
+        <v>0</v>
+      </c>
+      <c r="H1" s="6">
         <v>34</v>
       </c>
-      <c r="I1" s="5">
-        <v>0</v>
-      </c>
-      <c r="J1" s="5">
+      <c r="I1" s="7">
+        <v>0</v>
+      </c>
+      <c r="J1" s="7">
         <v>16</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="2">
-        <v>0</v>
-      </c>
-      <c r="M1" s="2">
+      <c r="L1" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1" s="3">
         <v>4</v>
       </c>
-      <c r="N1" s="2">
-        <v>0</v>
-      </c>
-      <c r="O1" s="2">
+      <c r="N1" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1" s="3">
         <v>12</v>
       </c>
       <c r="P1" s="2">
         <v>9</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1183,13 +1673,13 @@
       <c r="D2" s="2">
         <v>13</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>7</v>
       </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
         <v>14</v>
       </c>
       <c r="H2" s="2">
@@ -1201,25 +1691,25 @@
       <c r="J2" s="2">
         <v>15</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="3">
         <v>1</v>
       </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
         <v>3</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="3">
         <v>75</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1236,31 +1726,31 @@
       <c r="D3" s="2">
         <v>49</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>69</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="3">
         <v>69</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="3">
         <v>74</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="2">
@@ -1272,7 +1762,7 @@
       <c r="P3" s="2">
         <v>3</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1286,25 +1776,25 @@
       <c r="C4" s="2">
         <v>56</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
         <v>4</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>43</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <v>64</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3">
         <v>65</v>
       </c>
       <c r="K4" s="2">
@@ -1325,7 +1815,7 @@
       <c r="P4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1366,71 +1856,71 @@
       <c r="L5" s="2">
         <v>65</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="3">
         <v>1</v>
       </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
         <v>12</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>63</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>61</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>56</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>61</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>72</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>69</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <v>61</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <v>62</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="3">
         <v>65</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="3">
         <v>54</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="3">
         <v>61</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="3">
         <v>62</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>65</v>
       </c>
       <c r="B7" s="2">
@@ -1454,89 +1944,89 @@
       <c r="H7" s="2">
         <v>73</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
         <v>18</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="3">
         <v>63</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>65</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>78</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>61</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>70</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>65</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="3">
         <v>61</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="3">
         <v>76</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="3">
         <v>61</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="3">
         <v>31</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="3">
         <v>44</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="3">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="2">
@@ -1557,22 +2047,22 @@
       <c r="I9" s="2">
         <v>64</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="3">
         <v>1</v>
       </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>3</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="3">
         <v>28</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="3">
         <v>29</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="3">
         <v>49</v>
       </c>
       <c r="P9" s="2">
@@ -1616,42 +2106,42 @@
       <c r="L10" s="2">
         <v>65</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="3">
         <v>1</v>
       </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>9</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="3">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>65</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>61</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <v>76</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="3">
         <v>61</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -1669,21 +2159,21 @@
       <c r="M11" s="2">
         <v>8</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2">
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="2">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="A12" s="3">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3">
         <v>6</v>
       </c>
       <c r="C12" s="2">
@@ -1763,618 +2253,619 @@
       <c r="K13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="3">
         <v>1</v>
       </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
         <v>10</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="O13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="3">
         <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>76</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>61</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>61</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="3">
         <v>67</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="3">
         <v>62</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="3">
         <v>65</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="3">
         <v>63</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="3">
         <v>74</v>
       </c>
-      <c r="O14" s="2">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2">
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="2">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2">
+      <c r="A15" s="4">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4">
         <v>3</v>
       </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
         <v>4</v>
       </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
         <v>1</v>
       </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
         <v>2</v>
       </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
         <v>5</v>
       </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
         <v>6</v>
       </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2">
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="2">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2">
+      <c r="A16" s="4">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4">
         <v>2</v>
       </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
         <v>1</v>
       </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
         <v>7</v>
       </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
         <v>8</v>
       </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
         <v>1</v>
       </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2">
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
         <v>9</v>
       </c>
-      <c r="M16" s="2">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2">
-        <v>0</v>
-      </c>
-      <c r="P16" s="2">
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="2">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2">
+      <c r="A17" s="4">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4">
         <v>2</v>
       </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
         <v>1</v>
       </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2" t="s">
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2">
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
         <v>1</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="4">
         <v>4</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="O17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="2">
+      <c r="A18" s="4">
         <v>2</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
         <v>2</v>
       </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2" t="s">
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="s">
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2">
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
         <v>2</v>
       </c>
-      <c r="O18" s="2">
-        <v>0</v>
-      </c>
-      <c r="P18" s="2">
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="2">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2">
+      <c r="A19" s="4">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4">
         <v>7</v>
       </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
         <v>4</v>
       </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
         <v>9</v>
       </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2" t="s">
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2" t="s">
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M19" s="2">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2">
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
         <v>1</v>
       </c>
-      <c r="O19" s="2">
-        <v>0</v>
-      </c>
-      <c r="P19" s="2">
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="2">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="4">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2">
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
         <v>1</v>
       </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="s">
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2" t="s">
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O20" s="2">
-        <v>0</v>
-      </c>
-      <c r="P20" s="2">
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="2">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2">
+      <c r="A21" s="4">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4">
         <v>9</v>
       </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
         <v>3</v>
       </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2">
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
         <v>1</v>
       </c>
-      <c r="K21" s="2">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0</v>
-      </c>
-      <c r="N21" s="2" t="s">
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="O21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="P21" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="2">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
         <v>2</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="4">
         <v>5</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="4">
         <v>60</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
         <v>2</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2">
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
         <v>2</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="N22" s="2">
-        <v>0</v>
-      </c>
-      <c r="O22" s="2">
-        <v>0</v>
-      </c>
-      <c r="P22" s="2">
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="2">
+      <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="2">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
         <v>2</v>
       </c>
-      <c r="J23" s="2">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2" t="s">
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N23" s="2">
-        <v>0</v>
-      </c>
-      <c r="O23" s="2" t="s">
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P23" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="2">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2" t="s">
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2">
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
         <v>1</v>
       </c>
-      <c r="J24" s="2">
-        <v>0</v>
-      </c>
-      <c r="K24" s="2">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2">
-        <v>0</v>
-      </c>
-      <c r="M24" s="2" t="s">
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N24" s="2">
-        <v>0</v>
-      </c>
-      <c r="O24" s="2" t="s">
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="P24" s="2">
+      <c r="P24" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="2">
-        <v>0</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
         <v>1</v>
       </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
         <v>10</v>
       </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0</v>
-      </c>
-      <c r="K25" s="2">
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
         <v>2</v>
       </c>
-      <c r="L25" s="2">
-        <v>0</v>
-      </c>
-      <c r="M25" s="2">
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
         <v>11</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/JVM中篇/Demo字节码解析.xlsx
+++ b/JVM中篇/Demo字节码解析.xlsx
@@ -486,7 +486,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>CA</t>
   </si>
@@ -542,10 +542,19 @@
     <t>6C</t>
   </si>
   <si>
+    <t>常量池数据1</t>
+  </si>
+  <si>
+    <t>常量池数据2</t>
+  </si>
+  <si>
     <t>2F</t>
   </si>
   <si>
     <t>6A</t>
+  </si>
+  <si>
+    <t>访问标识</t>
   </si>
   <si>
     <t>3B</t>
@@ -595,11 +604,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="00"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -614,13 +623,6 @@
       <color theme="1"/>
       <name val="Lantinghei SC Extralight"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -639,38 +641,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -685,16 +687,38 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,7 +734,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,43 +762,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -805,37 +814,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,139 +988,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,17 +1011,53 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1031,36 +1082,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1076,17 +1097,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1095,152 +1110,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1265,6 +1280,9 @@
     <xf numFmtId="176" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1276,6 +1294,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1596,15 +1623,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="19" max="19" width="15.1696428571429" customWidth="1"/>
+    <col min="20" max="20" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -1656,7 +1684,7 @@
       <c r="P1" s="2">
         <v>9</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1709,7 +1737,7 @@
       <c r="P2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1762,7 +1790,7 @@
       <c r="P3" s="2">
         <v>3</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1815,7 +1843,7 @@
       <c r="P4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1869,7 +1897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:20">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1917,6 +1945,12 @@
       </c>
       <c r="P6" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1966,10 +2000,10 @@
         <v>7</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:19">
       <c r="A8" s="3">
         <v>65</v>
       </c>
@@ -1992,10 +2026,10 @@
         <v>65</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J8" s="3">
         <v>61</v>
@@ -2010,13 +2044,16 @@
         <v>31</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O8" s="3">
         <v>44</v>
       </c>
       <c r="P8" s="3">
         <v>65</v>
+      </c>
+      <c r="S8" s="15" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2027,7 +2064,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -2130,10 +2167,10 @@
         <v>12</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="F11" s="3">
         <v>61</v>
@@ -2145,7 +2182,7 @@
         <v>61</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
@@ -2160,7 +2197,7 @@
         <v>8</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="O11" s="3">
         <v>0</v>
@@ -2195,7 +2232,7 @@
         <v>7</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J12" s="2">
         <v>65</v>
@@ -2221,10 +2258,10 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2">
         <v>61</v>
@@ -2239,7 +2276,7 @@
         <v>31</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H13" s="2">
         <v>44</v>
@@ -2263,7 +2300,7 @@
         <v>10</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P13" s="3">
         <v>61</v>
@@ -2277,7 +2314,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>17</v>
@@ -2292,16 +2329,16 @@
         <v>67</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J14" s="3">
         <v>62</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L14" s="3">
         <v>65</v>
@@ -2312,10 +2349,10 @@
       <c r="N14" s="3">
         <v>74</v>
       </c>
-      <c r="O14" s="4">
-        <v>0</v>
-      </c>
-      <c r="P14" s="4">
+      <c r="O14" s="8">
+        <v>0</v>
+      </c>
+      <c r="P14" s="8">
         <v>21</v>
       </c>
     </row>
@@ -2445,10 +2482,10 @@
         <v>4</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
@@ -2457,13 +2494,13 @@
         <v>1</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N17" s="4">
         <v>4</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P17" s="4">
         <v>0</v>
@@ -2474,7 +2511,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C18" s="4">
         <v>0</v>
@@ -2542,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I19" s="4">
         <v>0</v>
@@ -2554,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M19" s="4">
         <v>0</v>
@@ -2580,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G20" s="4">
         <v>0</v>
@@ -2604,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M20" s="4">
         <v>0</v>
@@ -2636,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G21" s="4">
         <v>0</v>
@@ -2663,15 +2700,15 @@
         <v>13</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B22" s="4">
         <v>0</v>
@@ -2686,7 +2723,7 @@
         <v>60</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G22" s="4">
         <v>0</v>
@@ -2695,10 +2732,10 @@
         <v>2</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
@@ -2707,7 +2744,7 @@
         <v>2</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N22" s="4">
         <v>0</v>
@@ -2757,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N23" s="4">
         <v>0</v>
@@ -2771,13 +2808,13 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B24" s="4">
         <v>0</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
@@ -2789,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H24" s="4">
         <v>0</v>
@@ -2813,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="P24" s="4">
         <v>0</v>
@@ -2821,7 +2858,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25" s="4">
         <v>0</v>

--- a/JVM中篇/Demo字节码解析.xlsx
+++ b/JVM中篇/Demo字节码解析.xlsx
@@ -486,7 +486,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>CA</t>
   </si>
@@ -560,10 +560,22 @@
     <t>3B</t>
   </si>
   <si>
+    <t>当前类索引</t>
+  </si>
+  <si>
+    <t>父类索引</t>
+  </si>
+  <si>
     <t>2E</t>
   </si>
   <si>
     <t>0C</t>
+  </si>
+  <si>
+    <t>实现接口的计数器</t>
+  </si>
+  <si>
+    <t>字段计数器</t>
   </si>
   <si>
     <t>4F</t>
@@ -604,11 +616,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="00"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -640,8 +652,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,70 +676,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,7 +693,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,10 +745,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -761,15 +760,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -796,6 +808,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -808,6 +832,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -820,181 +850,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,15 +1029,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1032,6 +1047,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1043,6 +1067,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1064,20 +1097,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1099,9 +1121,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1110,152 +1134,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1268,40 +1292,61 @@
     <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1626,12 +1671,12 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
-    <col min="19" max="19" width="15.1696428571429" customWidth="1"/>
+    <col min="19" max="19" width="22.1696428571429" customWidth="1"/>
     <col min="20" max="20" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1648,22 +1693,22 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5">
-        <v>0</v>
-      </c>
-      <c r="F1" s="5">
-        <v>0</v>
-      </c>
-      <c r="G1" s="6">
-        <v>0</v>
-      </c>
-      <c r="H1" s="6">
+      <c r="E1" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1" s="7">
+        <v>0</v>
+      </c>
+      <c r="G1" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1" s="8">
         <v>34</v>
       </c>
-      <c r="I1" s="7">
-        <v>0</v>
-      </c>
-      <c r="J1" s="7">
+      <c r="I1" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1" s="10">
         <v>16</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -1684,7 +1729,7 @@
       <c r="P1" s="2">
         <v>9</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1737,7 +1782,7 @@
       <c r="P2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1790,7 +1835,7 @@
       <c r="P3" s="2">
         <v>3</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1843,7 +1888,7 @@
       <c r="P4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1946,10 +1991,10 @@
       <c r="P6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="S6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="14" t="s">
+      <c r="T6" s="17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2052,11 +2097,11 @@
       <c r="P8" s="3">
         <v>65</v>
       </c>
-      <c r="S8" s="15" t="s">
+      <c r="S8" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:19">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -2105,8 +2150,11 @@
       <c r="P9" s="2">
         <v>1</v>
       </c>
+      <c r="S9" s="19" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:19">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -2155,8 +2203,11 @@
       <c r="P10" s="3">
         <v>44</v>
       </c>
+      <c r="S10" s="20" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:19">
       <c r="A11" s="3">
         <v>65</v>
       </c>
@@ -2167,7 +2218,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>21</v>
@@ -2182,7 +2233,7 @@
         <v>61</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
@@ -2197,7 +2248,7 @@
         <v>8</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O11" s="3">
         <v>0</v>
@@ -2205,8 +2256,11 @@
       <c r="P11" s="3">
         <v>5</v>
       </c>
+      <c r="S11" s="21" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:19">
       <c r="A12" s="3">
         <v>0</v>
       </c>
@@ -2254,6 +2308,9 @@
       </c>
       <c r="P12" s="2">
         <v>65</v>
+      </c>
+      <c r="S12" s="22" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2332,7 +2389,7 @@
         <v>20</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J14" s="3">
         <v>62</v>
@@ -2349,10 +2406,10 @@
       <c r="N14" s="3">
         <v>74</v>
       </c>
-      <c r="O14" s="8">
-        <v>0</v>
-      </c>
-      <c r="P14" s="8">
+      <c r="O14" s="11">
+        <v>0</v>
+      </c>
+      <c r="P14" s="11">
         <v>21</v>
       </c>
     </row>
@@ -2363,542 +2420,542 @@
       <c r="B15" s="4">
         <v>3</v>
       </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
         <v>4</v>
       </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
         <v>1</v>
       </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
         <v>2</v>
       </c>
-      <c r="K15" s="4">
-        <v>0</v>
-      </c>
-      <c r="L15" s="4">
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
         <v>5</v>
       </c>
-      <c r="M15" s="4">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="N15" s="6">
         <v>6</v>
       </c>
-      <c r="O15" s="4">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4">
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+      <c r="P15" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="4">
-        <v>0</v>
-      </c>
-      <c r="B16" s="4">
+      <c r="A16" s="6">
+        <v>0</v>
+      </c>
+      <c r="B16" s="6">
         <v>2</v>
       </c>
-      <c r="C16" s="4">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
         <v>1</v>
       </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
         <v>7</v>
       </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
         <v>8</v>
       </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
         <v>1</v>
       </c>
-      <c r="K16" s="4">
-        <v>0</v>
-      </c>
-      <c r="L16" s="4">
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
         <v>9</v>
       </c>
-      <c r="M16" s="4">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0</v>
-      </c>
-      <c r="P16" s="4">
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <v>0</v>
+      </c>
+      <c r="O16" s="6">
+        <v>0</v>
+      </c>
+      <c r="P16" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="4">
-        <v>0</v>
-      </c>
-      <c r="B17" s="4">
+      <c r="A17" s="6">
+        <v>0</v>
+      </c>
+      <c r="B17" s="6">
         <v>2</v>
       </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
         <v>1</v>
       </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4" t="s">
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0</v>
-      </c>
-      <c r="L17" s="4">
+      <c r="I17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
         <v>1</v>
       </c>
-      <c r="M17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N17" s="4">
+      <c r="M17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="6">
         <v>4</v>
       </c>
-      <c r="O17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P17" s="4">
+      <c r="O17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P17" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="4">
+      <c r="A18" s="6">
         <v>2</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="B18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
         <v>2</v>
       </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4" t="s">
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="4">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0</v>
-      </c>
-      <c r="L18" s="4" t="s">
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="4">
-        <v>0</v>
-      </c>
-      <c r="N18" s="4">
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6">
         <v>2</v>
       </c>
-      <c r="O18" s="4">
-        <v>0</v>
-      </c>
-      <c r="P18" s="4">
+      <c r="O18" s="6">
+        <v>0</v>
+      </c>
+      <c r="P18" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="4">
-        <v>0</v>
-      </c>
-      <c r="B19" s="4">
+      <c r="A19" s="6">
+        <v>0</v>
+      </c>
+      <c r="B19" s="6">
         <v>7</v>
       </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
         <v>4</v>
       </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
         <v>9</v>
       </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" s="4">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0</v>
+      </c>
+      <c r="N19" s="6">
         <v>1</v>
       </c>
-      <c r="O19" s="4">
-        <v>0</v>
-      </c>
-      <c r="P19" s="4">
+      <c r="O19" s="6">
+        <v>0</v>
+      </c>
+      <c r="P19" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="4">
-        <v>0</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="6">
+        <v>0</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
         <v>1</v>
       </c>
-      <c r="K20" s="4">
-        <v>0</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M20" s="4">
-        <v>0</v>
-      </c>
-      <c r="N20" s="4" t="s">
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O20" s="4">
-        <v>0</v>
-      </c>
-      <c r="P20" s="4">
+      <c r="O20" s="6">
+        <v>0</v>
+      </c>
+      <c r="P20" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="4">
-        <v>0</v>
-      </c>
-      <c r="B21" s="4">
+      <c r="A21" s="6">
+        <v>0</v>
+      </c>
+      <c r="B21" s="6">
         <v>9</v>
       </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
         <v>3</v>
       </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
         <v>1</v>
       </c>
-      <c r="K21" s="4">
-        <v>0</v>
-      </c>
-      <c r="L21" s="4">
-        <v>0</v>
-      </c>
-      <c r="M21" s="4">
-        <v>0</v>
-      </c>
-      <c r="N21" s="4" t="s">
+      <c r="K21" s="6">
+        <v>0</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>27</v>
+      <c r="O21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="4">
-        <v>0</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="A22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6">
         <v>2</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="6">
         <v>5</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="6">
         <v>60</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4">
+      <c r="F22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
         <v>2</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0</v>
-      </c>
-      <c r="L22" s="4">
+      <c r="I22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0</v>
+      </c>
+      <c r="L22" s="6">
         <v>2</v>
       </c>
-      <c r="M22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N22" s="4">
-        <v>0</v>
-      </c>
-      <c r="O22" s="4">
-        <v>0</v>
-      </c>
-      <c r="P22" s="4">
+      <c r="M22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0</v>
+      </c>
+      <c r="O22" s="6">
+        <v>0</v>
+      </c>
+      <c r="P22" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="4">
+      <c r="A23" s="6">
         <v>2</v>
       </c>
-      <c r="B23" s="4">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="6">
+        <v>0</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4" t="s">
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4">
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
         <v>2</v>
       </c>
-      <c r="J23" s="4">
-        <v>0</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0</v>
-      </c>
-      <c r="L23" s="4">
-        <v>0</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N23" s="4">
-        <v>0</v>
-      </c>
-      <c r="O23" s="4" t="s">
+      <c r="J23" s="6">
+        <v>0</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0</v>
+      </c>
+      <c r="L23" s="6">
+        <v>0</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" s="6">
+        <v>0</v>
+      </c>
+      <c r="O23" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="4">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="4">
-        <v>0</v>
-      </c>
-      <c r="I24" s="4">
+      <c r="A24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
         <v>1</v>
       </c>
-      <c r="J24" s="4">
-        <v>0</v>
-      </c>
-      <c r="K24" s="4">
-        <v>0</v>
-      </c>
-      <c r="L24" s="4">
-        <v>0</v>
-      </c>
-      <c r="M24" s="4" t="s">
+      <c r="J24" s="6">
+        <v>0</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0</v>
+      </c>
+      <c r="M24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N24" s="4">
-        <v>0</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P24" s="4">
+      <c r="N24" s="6">
+        <v>0</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P24" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="4">
-        <v>0</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4">
+      <c r="A25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="6">
+        <v>0</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
         <v>1</v>
       </c>
-      <c r="F25" s="4">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4">
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
         <v>10</v>
       </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0</v>
-      </c>
-      <c r="J25" s="4">
-        <v>0</v>
-      </c>
-      <c r="K25" s="4">
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0</v>
+      </c>
+      <c r="K25" s="6">
         <v>2</v>
       </c>
-      <c r="L25" s="4">
-        <v>0</v>
-      </c>
-      <c r="M25" s="4">
+      <c r="L25" s="6">
+        <v>0</v>
+      </c>
+      <c r="M25" s="6">
         <v>11</v>
       </c>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/JVM中篇/Demo字节码解析.xlsx
+++ b/JVM中篇/Demo字节码解析.xlsx
@@ -486,7 +486,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>CA</t>
   </si>
@@ -578,7 +578,19 @@
     <t>字段计数器</t>
   </si>
   <si>
+    <t>字段访问标识</t>
+  </si>
+  <si>
     <t>4F</t>
+  </si>
+  <si>
+    <t>字段名索引</t>
+  </si>
+  <si>
+    <t>字段描述符索引</t>
+  </si>
+  <si>
+    <t>字段的属性计数器</t>
   </si>
   <si>
     <t>2A</t>
@@ -617,10 +629,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="00"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -638,7 +650,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,32 +717,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,6 +734,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -700,15 +764,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,9 +778,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,51 +792,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -832,6 +844,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -844,181 +862,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,6 +1047,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1051,7 +1078,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1073,8 +1115,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1098,34 +1142,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1134,152 +1152,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1316,6 +1334,21 @@
     <xf numFmtId="176" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1325,8 +1358,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1334,7 +1370,7 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1343,10 +1379,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1668,10 +1716,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1705,10 +1753,10 @@
       <c r="H1" s="8">
         <v>34</v>
       </c>
-      <c r="I1" s="10">
-        <v>0</v>
-      </c>
-      <c r="J1" s="10">
+      <c r="I1" s="11">
+        <v>0</v>
+      </c>
+      <c r="J1" s="11">
         <v>16</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -1729,7 +1777,7 @@
       <c r="P1" s="2">
         <v>9</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="17" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1782,7 +1830,7 @@
       <c r="P2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1835,7 +1883,7 @@
       <c r="P3" s="2">
         <v>3</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="S3" s="19" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1888,11 +1936,11 @@
       <c r="P4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="S4" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:19">
       <c r="A5" s="2">
         <v>65</v>
       </c>
@@ -1941,6 +1989,7 @@
       <c r="P5" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="3" t="s">
@@ -1991,14 +2040,14 @@
       <c r="P6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="16" t="s">
+      <c r="S6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:19">
       <c r="A7" s="3">
         <v>65</v>
       </c>
@@ -2047,6 +2096,7 @@
       <c r="P7" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="3">
@@ -2097,7 +2147,7 @@
       <c r="P8" s="3">
         <v>65</v>
       </c>
-      <c r="S8" s="18" t="s">
+      <c r="S8" s="24" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2150,7 +2200,7 @@
       <c r="P9" s="2">
         <v>1</v>
       </c>
-      <c r="S9" s="19" t="s">
+      <c r="S9" s="25" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2203,7 +2253,7 @@
       <c r="P10" s="3">
         <v>44</v>
       </c>
-      <c r="S10" s="20" t="s">
+      <c r="S10" s="26" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2256,7 +2306,7 @@
       <c r="P11" s="3">
         <v>5</v>
       </c>
-      <c r="S11" s="21" t="s">
+      <c r="S11" s="27" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2309,11 +2359,11 @@
       <c r="P12" s="2">
         <v>65</v>
       </c>
-      <c r="S12" s="22" t="s">
+      <c r="S12" s="28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:19">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2362,8 +2412,11 @@
       <c r="P13" s="3">
         <v>61</v>
       </c>
+      <c r="S13" s="29" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:19">
       <c r="A14" s="3">
         <v>76</v>
       </c>
@@ -2389,7 +2442,7 @@
         <v>20</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J14" s="3">
         <v>62</v>
@@ -2406,14 +2459,17 @@
       <c r="N14" s="3">
         <v>74</v>
       </c>
-      <c r="O14" s="11">
-        <v>0</v>
-      </c>
-      <c r="P14" s="11">
+      <c r="O14" s="14">
+        <v>0</v>
+      </c>
+      <c r="P14" s="14">
         <v>21</v>
       </c>
+      <c r="S14" s="30" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:19">
       <c r="A15" s="4">
         <v>0</v>
       </c>
@@ -2426,44 +2482,47 @@
       <c r="D15" s="5">
         <v>4</v>
       </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9">
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
         <v>1</v>
       </c>
-      <c r="I15" s="6">
-        <v>0</v>
-      </c>
-      <c r="J15" s="6">
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
         <v>2</v>
       </c>
-      <c r="K15" s="6">
-        <v>0</v>
-      </c>
-      <c r="L15" s="6">
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
         <v>5</v>
       </c>
-      <c r="M15" s="6">
-        <v>0</v>
-      </c>
-      <c r="N15" s="6">
+      <c r="M15" s="15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="15">
         <v>6</v>
       </c>
-      <c r="O15" s="6">
-        <v>0</v>
-      </c>
-      <c r="P15" s="6">
-        <v>0</v>
+      <c r="O15" s="16">
+        <v>0</v>
+      </c>
+      <c r="P15" s="16">
+        <v>0</v>
+      </c>
+      <c r="S15" s="31" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:19">
       <c r="A16" s="6">
         <v>0</v>
       </c>
@@ -2512,8 +2571,11 @@
       <c r="P16" s="6">
         <v>38</v>
       </c>
+      <c r="S16" s="32" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:19">
       <c r="A17" s="6">
         <v>0</v>
       </c>
@@ -2539,10 +2601,10 @@
         <v>4</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K17" s="6">
         <v>0</v>
@@ -2551,24 +2613,25 @@
         <v>1</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N17" s="6">
         <v>4</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="P17" s="6">
         <v>0</v>
       </c>
+      <c r="S17" s="21"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:19">
       <c r="A18" s="6">
         <v>2</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
@@ -2612,8 +2675,9 @@
       <c r="P18" s="6">
         <v>0</v>
       </c>
+      <c r="S18" s="21"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:19">
       <c r="A19" s="6">
         <v>0</v>
       </c>
@@ -2636,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I19" s="6">
         <v>0</v>
@@ -2662,8 +2726,9 @@
       <c r="P19" s="6">
         <v>0</v>
       </c>
+      <c r="S19" s="21"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:19">
       <c r="A20" s="6">
         <v>0</v>
       </c>
@@ -2680,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G20" s="6">
         <v>0</v>
@@ -2698,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M20" s="6">
         <v>0</v>
@@ -2712,8 +2777,9 @@
       <c r="P20" s="6">
         <v>1</v>
       </c>
+      <c r="S20" s="21"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:19">
       <c r="A21" s="6">
         <v>0</v>
       </c>
@@ -2730,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
@@ -2757,15 +2823,16 @@
         <v>13</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="S21" s="21"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:19">
       <c r="A22" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B22" s="6">
         <v>0</v>
@@ -2780,7 +2847,7 @@
         <v>60</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G22" s="6">
         <v>0</v>
@@ -2789,10 +2856,10 @@
         <v>2</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K22" s="6">
         <v>0</v>
@@ -2801,7 +2868,7 @@
         <v>2</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N22" s="6">
         <v>0</v>
@@ -2812,8 +2879,9 @@
       <c r="P22" s="6">
         <v>0</v>
       </c>
+      <c r="S22" s="21"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:19">
       <c r="A23" s="6">
         <v>2</v>
       </c>
@@ -2862,16 +2930,17 @@
       <c r="P23" s="6">
         <v>0</v>
       </c>
+      <c r="S23" s="21"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:19">
       <c r="A24" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B24" s="6">
         <v>0</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D24" s="6">
         <v>0</v>
@@ -2912,10 +2981,11 @@
       <c r="P24" s="6">
         <v>0</v>
       </c>
+      <c r="S24" s="21"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:19">
       <c r="A25" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B25" s="6">
         <v>0</v>
@@ -2956,6 +3026,13 @@
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
+      <c r="S25" s="21"/>
+    </row>
+    <row r="26" spans="19:19">
+      <c r="S26" s="21"/>
+    </row>
+    <row r="27" spans="19:19">
+      <c r="S27" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/JVM中篇/Demo字节码解析.xlsx
+++ b/JVM中篇/Demo字节码解析.xlsx
@@ -486,7 +486,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>CA</t>
   </si>
@@ -602,19 +602,34 @@
     <t>B5</t>
   </si>
   <si>
+    <t>方法计数器</t>
+  </si>
+  <si>
     <t>B1</t>
   </si>
   <si>
+    <t>方法的访问标识</t>
+  </si>
+  <si>
     <t>0B</t>
   </si>
   <si>
+    <t>方法名索引</t>
+  </si>
+  <si>
     <t>0D</t>
   </si>
   <si>
     <t>0E</t>
   </si>
   <si>
+    <t>方法描述符索引</t>
+  </si>
+  <si>
     <t>3D</t>
+  </si>
+  <si>
+    <t>方法属性计数器</t>
   </si>
   <si>
     <t>B4</t>
@@ -628,11 +643,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="00"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -663,14 +678,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -679,31 +686,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -717,18 +701,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -748,6 +748,37 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -755,9 +786,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,30 +800,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -832,6 +847,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -856,6 +883,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -874,6 +913,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -892,151 +937,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,71 +1100,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1147,157 +1127,222 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1316,15 +1361,15 @@
     <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1349,52 +1394,82 @@
     <xf numFmtId="176" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1719,7 +1794,7 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1741,22 +1816,22 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7">
-        <v>0</v>
-      </c>
-      <c r="F1" s="7">
-        <v>0</v>
-      </c>
-      <c r="G1" s="8">
-        <v>0</v>
-      </c>
-      <c r="H1" s="8">
+      <c r="E1" s="9">
+        <v>0</v>
+      </c>
+      <c r="F1" s="9">
+        <v>0</v>
+      </c>
+      <c r="G1" s="10">
+        <v>0</v>
+      </c>
+      <c r="H1" s="10">
         <v>34</v>
       </c>
-      <c r="I1" s="11">
-        <v>0</v>
-      </c>
-      <c r="J1" s="11">
+      <c r="I1" s="15">
+        <v>0</v>
+      </c>
+      <c r="J1" s="15">
         <v>16</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -1777,7 +1852,7 @@
       <c r="P1" s="2">
         <v>9</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="22" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1830,7 +1905,7 @@
       <c r="P2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1883,7 +1958,7 @@
       <c r="P3" s="2">
         <v>3</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="S3" s="24" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1936,7 +2011,7 @@
       <c r="P4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="S4" s="25" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1989,7 +2064,7 @@
       <c r="P5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S5" s="21"/>
+      <c r="S5" s="26"/>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="3" t="s">
@@ -2040,10 +2115,10 @@
       <c r="P6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="22" t="s">
+      <c r="S6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="23" t="s">
+      <c r="T6" s="28" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2096,7 +2171,7 @@
       <c r="P7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="21"/>
+      <c r="S7" s="26"/>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="3">
@@ -2147,7 +2222,7 @@
       <c r="P8" s="3">
         <v>65</v>
       </c>
-      <c r="S8" s="24" t="s">
+      <c r="S8" s="29" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2200,7 +2275,7 @@
       <c r="P9" s="2">
         <v>1</v>
       </c>
-      <c r="S9" s="25" t="s">
+      <c r="S9" s="30" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2253,7 +2328,7 @@
       <c r="P10" s="3">
         <v>44</v>
       </c>
-      <c r="S10" s="26" t="s">
+      <c r="S10" s="31" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2306,7 +2381,7 @@
       <c r="P11" s="3">
         <v>5</v>
       </c>
-      <c r="S11" s="27" t="s">
+      <c r="S11" s="32" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2359,7 +2434,7 @@
       <c r="P12" s="2">
         <v>65</v>
       </c>
-      <c r="S12" s="28" t="s">
+      <c r="S12" s="33" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2412,7 +2487,7 @@
       <c r="P13" s="3">
         <v>61</v>
       </c>
-      <c r="S13" s="29" t="s">
+      <c r="S13" s="34" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2459,13 +2534,13 @@
       <c r="N14" s="3">
         <v>74</v>
       </c>
-      <c r="O14" s="14">
-        <v>0</v>
-      </c>
-      <c r="P14" s="14">
+      <c r="O14" s="19">
+        <v>0</v>
+      </c>
+      <c r="P14" s="19">
         <v>21</v>
       </c>
-      <c r="S14" s="30" t="s">
+      <c r="S14" s="35" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2482,43 +2557,43 @@
       <c r="D15" s="5">
         <v>4</v>
       </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="10">
-        <v>0</v>
-      </c>
-      <c r="H15" s="10">
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
         <v>1</v>
       </c>
-      <c r="I15" s="12">
-        <v>0</v>
-      </c>
-      <c r="J15" s="12">
+      <c r="I15" s="16">
+        <v>0</v>
+      </c>
+      <c r="J15" s="16">
         <v>2</v>
       </c>
-      <c r="K15" s="13">
-        <v>0</v>
-      </c>
-      <c r="L15" s="13">
+      <c r="K15" s="17">
+        <v>0</v>
+      </c>
+      <c r="L15" s="17">
         <v>5</v>
       </c>
-      <c r="M15" s="15">
-        <v>0</v>
-      </c>
-      <c r="N15" s="15">
+      <c r="M15" s="20">
+        <v>0</v>
+      </c>
+      <c r="N15" s="20">
         <v>6</v>
       </c>
-      <c r="O15" s="16">
-        <v>0</v>
-      </c>
-      <c r="P15" s="16">
-        <v>0</v>
-      </c>
-      <c r="S15" s="31" t="s">
+      <c r="O15" s="21">
+        <v>0</v>
+      </c>
+      <c r="P15" s="21">
+        <v>0</v>
+      </c>
+      <c r="S15" s="36" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2529,510 +2604,520 @@
       <c r="B16" s="6">
         <v>2</v>
       </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
         <v>1</v>
       </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="E16" s="13">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13">
         <v>7</v>
       </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6">
+      <c r="G16" s="14">
+        <v>0</v>
+      </c>
+      <c r="H16" s="14">
         <v>8</v>
       </c>
-      <c r="I16" s="6">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
+      <c r="I16" s="18">
+        <v>0</v>
+      </c>
+      <c r="J16" s="18">
         <v>1</v>
       </c>
-      <c r="K16" s="6">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6">
+      <c r="K16" s="8">
+        <v>0</v>
+      </c>
+      <c r="L16" s="8">
         <v>9</v>
       </c>
-      <c r="M16" s="6">
-        <v>0</v>
-      </c>
-      <c r="N16" s="6">
-        <v>0</v>
-      </c>
-      <c r="O16" s="6">
-        <v>0</v>
-      </c>
-      <c r="P16" s="6">
+      <c r="M16" s="8">
+        <v>0</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0</v>
+      </c>
+      <c r="P16" s="8">
         <v>38</v>
       </c>
-      <c r="S16" s="32" t="s">
+      <c r="S16" s="37" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="6">
-        <v>0</v>
-      </c>
-      <c r="B17" s="6">
+      <c r="A17" s="8">
+        <v>0</v>
+      </c>
+      <c r="B17" s="8">
         <v>2</v>
       </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="C17" s="8">
+        <v>0</v>
+      </c>
+      <c r="D17" s="8">
         <v>1</v>
       </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6" t="s">
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="6">
-        <v>0</v>
-      </c>
-      <c r="L17" s="6">
+      <c r="K17" s="8">
+        <v>0</v>
+      </c>
+      <c r="L17" s="8">
         <v>1</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="8">
         <v>4</v>
       </c>
-      <c r="O17" s="6" t="s">
+      <c r="O17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P17" s="6">
-        <v>0</v>
-      </c>
-      <c r="S17" s="21"/>
+      <c r="P17" s="8">
+        <v>0</v>
+      </c>
+      <c r="S17" s="38" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="6">
+      <c r="A18" s="8">
         <v>2</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="B18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
         <v>2</v>
       </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6" t="s">
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="6">
-        <v>0</v>
-      </c>
-      <c r="J18" s="6">
-        <v>0</v>
-      </c>
-      <c r="K18" s="6">
-        <v>0</v>
-      </c>
-      <c r="L18" s="6" t="s">
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0</v>
+      </c>
+      <c r="L18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="6">
-        <v>0</v>
-      </c>
-      <c r="N18" s="6">
+      <c r="M18" s="8">
+        <v>0</v>
+      </c>
+      <c r="N18" s="8">
         <v>2</v>
       </c>
-      <c r="O18" s="6">
-        <v>0</v>
-      </c>
-      <c r="P18" s="6">
-        <v>0</v>
-      </c>
-      <c r="S18" s="21"/>
+      <c r="O18" s="8">
+        <v>0</v>
+      </c>
+      <c r="P18" s="8">
+        <v>0</v>
+      </c>
+      <c r="S18" s="39" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="6">
-        <v>0</v>
-      </c>
-      <c r="B19" s="6">
+      <c r="A19" s="8">
+        <v>0</v>
+      </c>
+      <c r="B19" s="8">
         <v>7</v>
       </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="C19" s="8">
+        <v>0</v>
+      </c>
+      <c r="D19" s="8">
         <v>4</v>
       </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6">
+      <c r="E19" s="8">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
         <v>9</v>
       </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="6">
-        <v>0</v>
-      </c>
-      <c r="J19" s="6">
-        <v>0</v>
-      </c>
-      <c r="K19" s="6">
-        <v>0</v>
-      </c>
-      <c r="L19" s="6" t="s">
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0</v>
+      </c>
+      <c r="L19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M19" s="6">
-        <v>0</v>
-      </c>
-      <c r="N19" s="6">
+      <c r="M19" s="8">
+        <v>0</v>
+      </c>
+      <c r="N19" s="8">
         <v>1</v>
       </c>
-      <c r="O19" s="6">
-        <v>0</v>
-      </c>
-      <c r="P19" s="6">
-        <v>0</v>
-      </c>
-      <c r="S19" s="21"/>
+      <c r="O19" s="8">
+        <v>0</v>
+      </c>
+      <c r="P19" s="8">
+        <v>0</v>
+      </c>
+      <c r="S19" s="40" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="6">
-        <v>0</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="8">
+        <v>0</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
-      <c r="I20" s="6">
-        <v>0</v>
-      </c>
-      <c r="J20" s="6">
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
         <v>1</v>
       </c>
-      <c r="K20" s="6">
-        <v>0</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M20" s="6">
-        <v>0</v>
-      </c>
-      <c r="N20" s="6" t="s">
+      <c r="K20" s="13">
+        <v>0</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20" s="14">
+        <v>0</v>
+      </c>
+      <c r="N20" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O20" s="6">
-        <v>0</v>
-      </c>
-      <c r="P20" s="6">
+      <c r="O20" s="18">
+        <v>0</v>
+      </c>
+      <c r="P20" s="18">
         <v>1</v>
       </c>
-      <c r="S20" s="21"/>
+      <c r="S20" s="41" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="6">
-        <v>0</v>
-      </c>
-      <c r="B21" s="6">
+      <c r="A21" s="8">
+        <v>0</v>
+      </c>
+      <c r="B21" s="8">
         <v>9</v>
       </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="6">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6">
+      <c r="C21" s="8">
+        <v>0</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8">
         <v>3</v>
       </c>
-      <c r="I21" s="6">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6">
+      <c r="I21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8">
         <v>1</v>
       </c>
-      <c r="K21" s="6">
-        <v>0</v>
-      </c>
-      <c r="L21" s="6">
-        <v>0</v>
-      </c>
-      <c r="M21" s="6">
-        <v>0</v>
-      </c>
-      <c r="N21" s="6" t="s">
+      <c r="K21" s="8">
+        <v>0</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0</v>
+      </c>
+      <c r="N21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O21" s="6" t="s">
+      <c r="O21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="P21" s="6" t="s">
+      <c r="P21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="S21" s="21"/>
+      <c r="S21" s="42" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="6">
-        <v>0</v>
-      </c>
-      <c r="C22" s="6">
+      <c r="A22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8">
         <v>2</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="8">
         <v>5</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="8">
         <v>60</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="6">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6">
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8">
         <v>2</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22" s="6">
-        <v>0</v>
-      </c>
-      <c r="L22" s="6">
+      <c r="J22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" s="8">
+        <v>0</v>
+      </c>
+      <c r="L22" s="8">
         <v>2</v>
       </c>
-      <c r="M22" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="N22" s="6">
-        <v>0</v>
-      </c>
-      <c r="O22" s="6">
-        <v>0</v>
-      </c>
-      <c r="P22" s="6">
-        <v>0</v>
-      </c>
-      <c r="S22" s="21"/>
+      <c r="M22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0</v>
+      </c>
+      <c r="P22" s="8">
+        <v>0</v>
+      </c>
+      <c r="S22" s="26"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="6">
+      <c r="A23" s="8">
         <v>2</v>
       </c>
-      <c r="B23" s="6">
-        <v>0</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="8">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="6">
-        <v>0</v>
-      </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="6">
-        <v>0</v>
-      </c>
-      <c r="G23" s="6" t="s">
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="6">
-        <v>0</v>
-      </c>
-      <c r="I23" s="6">
+      <c r="H23" s="8">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8">
         <v>2</v>
       </c>
-      <c r="J23" s="6">
-        <v>0</v>
-      </c>
-      <c r="K23" s="6">
-        <v>0</v>
-      </c>
-      <c r="L23" s="6">
-        <v>0</v>
-      </c>
-      <c r="M23" s="6" t="s">
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0</v>
+      </c>
+      <c r="L23" s="8">
+        <v>0</v>
+      </c>
+      <c r="M23" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N23" s="6">
-        <v>0</v>
-      </c>
-      <c r="O23" s="6" t="s">
+      <c r="N23" s="8">
+        <v>0</v>
+      </c>
+      <c r="O23" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P23" s="6">
-        <v>0</v>
-      </c>
-      <c r="S23" s="21"/>
+      <c r="P23" s="8">
+        <v>0</v>
+      </c>
+      <c r="S23" s="26"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="6">
-        <v>0</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6" t="s">
+      <c r="A24" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="6">
-        <v>0</v>
-      </c>
-      <c r="I24" s="6">
+      <c r="H24" s="8">
+        <v>0</v>
+      </c>
+      <c r="I24" s="8">
         <v>1</v>
       </c>
-      <c r="J24" s="6">
-        <v>0</v>
-      </c>
-      <c r="K24" s="6">
-        <v>0</v>
-      </c>
-      <c r="L24" s="6">
-        <v>0</v>
-      </c>
-      <c r="M24" s="6" t="s">
+      <c r="J24" s="8">
+        <v>0</v>
+      </c>
+      <c r="K24" s="8">
+        <v>0</v>
+      </c>
+      <c r="L24" s="8">
+        <v>0</v>
+      </c>
+      <c r="M24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N24" s="6">
-        <v>0</v>
-      </c>
-      <c r="O24" s="6" t="s">
+      <c r="N24" s="8">
+        <v>0</v>
+      </c>
+      <c r="O24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="P24" s="6">
-        <v>0</v>
-      </c>
-      <c r="S24" s="21"/>
+      <c r="P24" s="8">
+        <v>0</v>
+      </c>
+      <c r="S24" s="26"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="6">
-        <v>0</v>
-      </c>
-      <c r="C25" s="6">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6">
-        <v>0</v>
-      </c>
-      <c r="E25" s="6">
+      <c r="A25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="8">
+        <v>0</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
         <v>1</v>
       </c>
-      <c r="F25" s="6">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6">
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
         <v>10</v>
       </c>
-      <c r="H25" s="6">
-        <v>0</v>
-      </c>
-      <c r="I25" s="6">
-        <v>0</v>
-      </c>
-      <c r="J25" s="6">
-        <v>0</v>
-      </c>
-      <c r="K25" s="6">
+      <c r="H25" s="8">
+        <v>0</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0</v>
+      </c>
+      <c r="K25" s="8">
         <v>2</v>
       </c>
-      <c r="L25" s="6">
-        <v>0</v>
-      </c>
-      <c r="M25" s="6">
+      <c r="L25" s="8">
+        <v>0</v>
+      </c>
+      <c r="M25" s="8">
         <v>11</v>
       </c>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="S25" s="21"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="S25" s="26"/>
     </row>
     <row r="26" spans="19:19">
-      <c r="S26" s="21"/>
+      <c r="S26" s="26"/>
     </row>
     <row r="27" spans="19:19">
-      <c r="S27" s="21"/>
+      <c r="S27" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/JVM中篇/Demo字节码解析.xlsx
+++ b/JVM中篇/Demo字节码解析.xlsx
@@ -486,7 +486,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>CA</t>
   </si>
@@ -636,6 +636,66 @@
   </si>
   <si>
     <t>AC</t>
+  </si>
+  <si>
+    <t>属性名索引</t>
+  </si>
+  <si>
+    <t>异常表的长度</t>
+  </si>
+  <si>
+    <t>属性长度</t>
+  </si>
+  <si>
+    <t>Code中的属性计数器</t>
+  </si>
+  <si>
+    <t>操作数栈的最大深度</t>
+  </si>
+  <si>
+    <t>Code中属性名索引</t>
+  </si>
+  <si>
+    <t>局部表量表的长度</t>
+  </si>
+  <si>
+    <t>Code中属性的长度</t>
+  </si>
+  <si>
+    <t>字节码指令长度</t>
+  </si>
+  <si>
+    <t>line_number_table_length</t>
+  </si>
+  <si>
+    <t>字节码指令</t>
+  </si>
+  <si>
+    <t>start_pc</t>
+  </si>
+  <si>
+    <t>line_number</t>
+  </si>
+  <si>
+    <t>local_variable_table的length</t>
+  </si>
+  <si>
+    <t>local_variable_table的变量名索引</t>
+  </si>
+  <si>
+    <t>local_variable_table的变量的描述符索引</t>
+  </si>
+  <si>
+    <t>local_variable_table的index</t>
+  </si>
+  <si>
+    <t>附加属性计数器</t>
+  </si>
+  <si>
+    <t>属性的长度</t>
+  </si>
+  <si>
+    <t>源码文件索引</t>
   </si>
 </sst>
 </file>
@@ -643,13 +703,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="00"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="00"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -664,6 +724,141 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="8"/>
+      <name val="Lantinghei SC Extralight"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Lantinghei SC Extralight"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Lantinghei SC Extralight"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Lantinghei SC Extralight"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Lantinghei SC Extralight"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Lantinghei SC Extralight"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Lantinghei SC Extralight"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0092DE"/>
+      <name val="Lantinghei SC Extralight"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Lantinghei SC Extralight"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3" tint="0.4"/>
+      <name val="Lantinghei SC Extralight"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7"/>
+      <name val="Lantinghei SC Extralight"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.25"/>
+      <name val="Lantinghei SC Extralight"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0092DE"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -678,10 +873,102 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -693,19 +980,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -717,51 +995,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -769,46 +1002,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="47">
+  <fills count="51">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -859,6 +1054,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -877,12 +1090,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1" tint="0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -895,6 +1102,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -919,7 +1132,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="4" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,25 +1150,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,13 +1288,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,103 +1300,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,17 +1323,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1124,15 +1352,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1152,6 +1371,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1167,28 +1397,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1197,152 +1416,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="43" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="37" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="45" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1367,109 +1586,202 @@
     <xf numFmtId="176" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1525,6 +1837,11 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="000092DE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1791,19 +2108,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
-    <col min="19" max="19" width="22.1696428571429" customWidth="1"/>
-    <col min="20" max="20" width="14.875" customWidth="1"/>
+    <col min="17" max="17" width="3.86607142857143" customWidth="1"/>
+    <col min="18" max="18" width="22.1696428571429" customWidth="1"/>
+    <col min="19" max="19" width="43.4553571428571" customWidth="1"/>
+    <col min="20" max="20" width="13.9821428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1816,22 +2135,22 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9">
-        <v>0</v>
-      </c>
-      <c r="F1" s="9">
-        <v>0</v>
-      </c>
-      <c r="G1" s="10">
-        <v>0</v>
-      </c>
-      <c r="H1" s="10">
+      <c r="E1" s="18">
+        <v>0</v>
+      </c>
+      <c r="F1" s="18">
+        <v>0</v>
+      </c>
+      <c r="G1" s="19">
+        <v>0</v>
+      </c>
+      <c r="H1" s="19">
         <v>34</v>
       </c>
-      <c r="I1" s="15">
-        <v>0</v>
-      </c>
-      <c r="J1" s="15">
+      <c r="I1" s="31">
+        <v>0</v>
+      </c>
+      <c r="J1" s="31">
         <v>16</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -1852,11 +2171,11 @@
       <c r="P1" s="2">
         <v>9</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="R1" s="43" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:18">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1905,11 +2224,11 @@
       <c r="P2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="R2" s="44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:18">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1958,11 +2277,11 @@
       <c r="P3" s="2">
         <v>3</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="R3" s="45" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:18">
       <c r="A4" s="2">
         <v>28</v>
       </c>
@@ -2011,11 +2330,11 @@
       <c r="P4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="25" t="s">
+      <c r="R4" s="46" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:18">
       <c r="A5" s="2">
         <v>65</v>
       </c>
@@ -2064,9 +2383,9 @@
       <c r="P5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S5" s="26"/>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="R5" s="47"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -2115,14 +2434,14 @@
       <c r="P6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="27" t="s">
+      <c r="R6" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="28" t="s">
+      <c r="S6" s="49" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:18">
       <c r="A7" s="3">
         <v>65</v>
       </c>
@@ -2171,9 +2490,9 @@
       <c r="P7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="26"/>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="R7" s="47"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="3">
         <v>65</v>
       </c>
@@ -2222,7 +2541,7 @@
       <c r="P8" s="3">
         <v>65</v>
       </c>
-      <c r="S8" s="29" t="s">
+      <c r="R8" s="50" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2275,9 +2594,10 @@
       <c r="P9" s="2">
         <v>1</v>
       </c>
-      <c r="S9" s="30" t="s">
+      <c r="R9" s="51" t="s">
         <v>24</v>
       </c>
+      <c r="S9" s="52"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="2">
@@ -2328,9 +2648,10 @@
       <c r="P10" s="3">
         <v>44</v>
       </c>
-      <c r="S10" s="31" t="s">
+      <c r="R10" s="53" t="s">
         <v>25</v>
       </c>
+      <c r="S10" s="52"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="3">
@@ -2381,9 +2702,10 @@
       <c r="P11" s="3">
         <v>5</v>
       </c>
-      <c r="S11" s="32" t="s">
+      <c r="R11" s="54" t="s">
         <v>28</v>
       </c>
+      <c r="S11" s="52"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="3">
@@ -2434,9 +2756,10 @@
       <c r="P12" s="2">
         <v>65</v>
       </c>
-      <c r="S12" s="33" t="s">
+      <c r="R12" s="55" t="s">
         <v>29</v>
       </c>
+      <c r="S12" s="52"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="2" t="s">
@@ -2487,9 +2810,10 @@
       <c r="P13" s="3">
         <v>61</v>
       </c>
-      <c r="S13" s="34" t="s">
+      <c r="R13" s="56" t="s">
         <v>30</v>
       </c>
+      <c r="S13" s="52"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="3">
@@ -2534,15 +2858,16 @@
       <c r="N14" s="3">
         <v>74</v>
       </c>
-      <c r="O14" s="19">
-        <v>0</v>
-      </c>
-      <c r="P14" s="19">
+      <c r="O14" s="38">
+        <v>0</v>
+      </c>
+      <c r="P14" s="38">
         <v>21</v>
       </c>
-      <c r="S14" s="35" t="s">
+      <c r="R14" s="57" t="s">
         <v>32</v>
       </c>
+      <c r="S14" s="52"/>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="4">
@@ -2557,45 +2882,46 @@
       <c r="D15" s="5">
         <v>4</v>
       </c>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0</v>
-      </c>
-      <c r="H15" s="12">
+      <c r="E15" s="20">
+        <v>0</v>
+      </c>
+      <c r="F15" s="20">
+        <v>0</v>
+      </c>
+      <c r="G15" s="21">
+        <v>0</v>
+      </c>
+      <c r="H15" s="21">
         <v>1</v>
       </c>
-      <c r="I15" s="16">
-        <v>0</v>
-      </c>
-      <c r="J15" s="16">
+      <c r="I15" s="32">
+        <v>0</v>
+      </c>
+      <c r="J15" s="32">
         <v>2</v>
       </c>
-      <c r="K15" s="17">
-        <v>0</v>
-      </c>
-      <c r="L15" s="17">
+      <c r="K15" s="33">
+        <v>0</v>
+      </c>
+      <c r="L15" s="33">
         <v>5</v>
       </c>
-      <c r="M15" s="20">
-        <v>0</v>
-      </c>
-      <c r="N15" s="20">
+      <c r="M15" s="39">
+        <v>0</v>
+      </c>
+      <c r="N15" s="39">
         <v>6</v>
       </c>
-      <c r="O15" s="21">
-        <v>0</v>
-      </c>
-      <c r="P15" s="21">
-        <v>0</v>
-      </c>
-      <c r="S15" s="36" t="s">
+      <c r="O15" s="40">
+        <v>0</v>
+      </c>
+      <c r="P15" s="40">
+        <v>0</v>
+      </c>
+      <c r="R15" s="58" t="s">
         <v>33</v>
       </c>
+      <c r="S15" s="52"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="6">
@@ -2610,45 +2936,46 @@
       <c r="D16" s="7">
         <v>1</v>
       </c>
-      <c r="E16" s="13">
-        <v>0</v>
-      </c>
-      <c r="F16" s="13">
+      <c r="E16" s="22">
+        <v>0</v>
+      </c>
+      <c r="F16" s="22">
         <v>7</v>
       </c>
-      <c r="G16" s="14">
-        <v>0</v>
-      </c>
-      <c r="H16" s="14">
+      <c r="G16" s="23">
+        <v>0</v>
+      </c>
+      <c r="H16" s="23">
         <v>8</v>
       </c>
-      <c r="I16" s="18">
-        <v>0</v>
-      </c>
-      <c r="J16" s="18">
+      <c r="I16" s="34">
+        <v>0</v>
+      </c>
+      <c r="J16" s="34">
         <v>1</v>
       </c>
-      <c r="K16" s="8">
-        <v>0</v>
-      </c>
-      <c r="L16" s="8">
+      <c r="K16" s="35">
+        <v>0</v>
+      </c>
+      <c r="L16" s="35">
         <v>9</v>
       </c>
-      <c r="M16" s="8">
-        <v>0</v>
-      </c>
-      <c r="N16" s="8">
-        <v>0</v>
-      </c>
-      <c r="O16" s="8">
-        <v>0</v>
-      </c>
-      <c r="P16" s="8">
+      <c r="M16" s="41">
+        <v>0</v>
+      </c>
+      <c r="N16" s="41">
+        <v>0</v>
+      </c>
+      <c r="O16" s="41">
+        <v>0</v>
+      </c>
+      <c r="P16" s="41">
         <v>38</v>
       </c>
-      <c r="S16" s="37" t="s">
+      <c r="R16" s="59" t="s">
         <v>34</v>
       </c>
+      <c r="S16" s="52"/>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="8">
@@ -2657,181 +2984,184 @@
       <c r="B17" s="8">
         <v>2</v>
       </c>
-      <c r="C17" s="8">
-        <v>0</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="C17" s="9">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9">
         <v>1</v>
       </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8" t="s">
+      <c r="E17" s="24">
+        <v>0</v>
+      </c>
+      <c r="F17" s="24">
+        <v>0</v>
+      </c>
+      <c r="G17" s="24">
+        <v>0</v>
+      </c>
+      <c r="H17" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="8">
-        <v>0</v>
-      </c>
-      <c r="L17" s="8">
+      <c r="K17" s="10">
+        <v>0</v>
+      </c>
+      <c r="L17" s="10">
         <v>1</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="10">
         <v>4</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="O17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="P17" s="8">
-        <v>0</v>
-      </c>
-      <c r="S17" s="38" t="s">
+      <c r="P17" s="10">
+        <v>0</v>
+      </c>
+      <c r="R17" s="60" t="s">
         <v>38</v>
       </c>
+      <c r="S17" s="52"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="8">
+      <c r="A18" s="10">
         <v>2</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="8">
-        <v>0</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
+      <c r="C18" s="11">
+        <v>0</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0</v>
+      </c>
+      <c r="E18" s="25">
+        <v>0</v>
+      </c>
+      <c r="F18" s="25">
         <v>2</v>
       </c>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8" t="s">
+      <c r="G18" s="26">
+        <v>0</v>
+      </c>
+      <c r="H18" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="8">
-        <v>0</v>
-      </c>
-      <c r="J18" s="8">
-        <v>0</v>
-      </c>
-      <c r="K18" s="8">
-        <v>0</v>
-      </c>
-      <c r="L18" s="8" t="s">
+      <c r="I18" s="36">
+        <v>0</v>
+      </c>
+      <c r="J18" s="36">
+        <v>0</v>
+      </c>
+      <c r="K18" s="36">
+        <v>0</v>
+      </c>
+      <c r="L18" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="8">
-        <v>0</v>
-      </c>
-      <c r="N18" s="8">
+      <c r="M18" s="42">
+        <v>0</v>
+      </c>
+      <c r="N18" s="42">
         <v>2</v>
       </c>
-      <c r="O18" s="8">
-        <v>0</v>
-      </c>
-      <c r="P18" s="8">
-        <v>0</v>
-      </c>
-      <c r="S18" s="39" t="s">
+      <c r="O18" s="13">
+        <v>0</v>
+      </c>
+      <c r="P18" s="13">
+        <v>0</v>
+      </c>
+      <c r="R18" s="61" t="s">
         <v>40</v>
       </c>
+      <c r="S18" s="52"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="8">
-        <v>0</v>
-      </c>
-      <c r="B19" s="8">
+      <c r="A19" s="12">
+        <v>0</v>
+      </c>
+      <c r="B19" s="12">
         <v>7</v>
       </c>
-      <c r="C19" s="8">
-        <v>0</v>
-      </c>
-      <c r="D19" s="8">
+      <c r="C19" s="13">
+        <v>0</v>
+      </c>
+      <c r="D19" s="13">
         <v>4</v>
       </c>
-      <c r="E19" s="8">
-        <v>0</v>
-      </c>
-      <c r="F19" s="8">
+      <c r="E19" s="12">
+        <v>0</v>
+      </c>
+      <c r="F19" s="12">
         <v>9</v>
       </c>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
-      <c r="H19" s="8" t="s">
+      <c r="G19" s="26">
+        <v>0</v>
+      </c>
+      <c r="H19" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="8">
-        <v>0</v>
-      </c>
-      <c r="J19" s="8">
-        <v>0</v>
-      </c>
-      <c r="K19" s="8">
-        <v>0</v>
-      </c>
-      <c r="L19" s="8" t="s">
+      <c r="I19" s="36">
+        <v>0</v>
+      </c>
+      <c r="J19" s="36">
+        <v>0</v>
+      </c>
+      <c r="K19" s="36">
+        <v>0</v>
+      </c>
+      <c r="L19" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="M19" s="8">
-        <v>0</v>
-      </c>
-      <c r="N19" s="8">
+      <c r="M19" s="42">
+        <v>0</v>
+      </c>
+      <c r="N19" s="42">
         <v>1</v>
       </c>
-      <c r="O19" s="8">
-        <v>0</v>
-      </c>
-      <c r="P19" s="8">
-        <v>0</v>
-      </c>
-      <c r="S19" s="40" t="s">
+      <c r="O19" s="13">
+        <v>0</v>
+      </c>
+      <c r="P19" s="13">
+        <v>0</v>
+      </c>
+      <c r="R19" s="62" t="s">
         <v>42</v>
       </c>
+      <c r="S19" s="52"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="8">
-        <v>0</v>
-      </c>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="14">
+        <v>0</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="8">
-        <v>0</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="C20" s="15">
+        <v>0</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8" t="s">
+      <c r="E20" s="27">
+        <v>0</v>
+      </c>
+      <c r="F20" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8">
+      <c r="G20" s="28">
+        <v>0</v>
+      </c>
+      <c r="H20" s="28">
         <v>0</v>
       </c>
       <c r="I20" s="7">
@@ -2840,284 +3170,365 @@
       <c r="J20" s="7">
         <v>1</v>
       </c>
-      <c r="K20" s="13">
-        <v>0</v>
-      </c>
-      <c r="L20" s="13" t="s">
+      <c r="K20" s="22">
+        <v>0</v>
+      </c>
+      <c r="L20" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="M20" s="14">
-        <v>0</v>
-      </c>
-      <c r="N20" s="14" t="s">
+      <c r="M20" s="23">
+        <v>0</v>
+      </c>
+      <c r="N20" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="O20" s="18">
-        <v>0</v>
-      </c>
-      <c r="P20" s="18">
+      <c r="O20" s="34">
+        <v>0</v>
+      </c>
+      <c r="P20" s="34">
         <v>1</v>
       </c>
-      <c r="S20" s="41" t="s">
+      <c r="R20" s="63" t="s">
         <v>45</v>
       </c>
+      <c r="S20" s="52"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="8">
-        <v>0</v>
-      </c>
-      <c r="B21" s="8">
+      <c r="A21" s="16">
+        <v>0</v>
+      </c>
+      <c r="B21" s="16">
         <v>9</v>
       </c>
-      <c r="C21" s="8">
-        <v>0</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8">
-        <v>0</v>
-      </c>
-      <c r="F21" s="8" t="s">
+      <c r="C21" s="16">
+        <v>0</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-      <c r="H21" s="8">
+      <c r="G21" s="16">
+        <v>0</v>
+      </c>
+      <c r="H21" s="16">
         <v>3</v>
       </c>
-      <c r="I21" s="8">
-        <v>0</v>
-      </c>
-      <c r="J21" s="8">
+      <c r="I21" s="16">
+        <v>0</v>
+      </c>
+      <c r="J21" s="16">
         <v>1</v>
       </c>
-      <c r="K21" s="8">
-        <v>0</v>
-      </c>
-      <c r="L21" s="8">
-        <v>0</v>
-      </c>
-      <c r="M21" s="8">
-        <v>0</v>
-      </c>
-      <c r="N21" s="8" t="s">
+      <c r="K21" s="16">
+        <v>0</v>
+      </c>
+      <c r="L21" s="16">
+        <v>0</v>
+      </c>
+      <c r="M21" s="16">
+        <v>0</v>
+      </c>
+      <c r="N21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O21" s="8" t="s">
+      <c r="O21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="P21" s="8" t="s">
+      <c r="P21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="S21" s="42" t="s">
+      <c r="R21" s="64" t="s">
         <v>47</v>
       </c>
+      <c r="S21" s="52"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="8">
-        <v>0</v>
-      </c>
-      <c r="C22" s="8">
+      <c r="B22" s="16">
+        <v>0</v>
+      </c>
+      <c r="C22" s="16">
         <v>2</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="16">
         <v>5</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="16">
         <v>60</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="8">
-        <v>0</v>
-      </c>
-      <c r="H22" s="8">
+      <c r="G22" s="16">
+        <v>0</v>
+      </c>
+      <c r="H22" s="16">
         <v>2</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="K22" s="8">
-        <v>0</v>
-      </c>
-      <c r="L22" s="8">
+      <c r="K22" s="16">
+        <v>0</v>
+      </c>
+      <c r="L22" s="16">
         <v>2</v>
       </c>
-      <c r="M22" s="8" t="s">
+      <c r="M22" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="N22" s="8">
-        <v>0</v>
-      </c>
-      <c r="O22" s="8">
-        <v>0</v>
-      </c>
-      <c r="P22" s="8">
-        <v>0</v>
-      </c>
-      <c r="S22" s="26"/>
+      <c r="N22" s="16">
+        <v>0</v>
+      </c>
+      <c r="O22" s="16">
+        <v>0</v>
+      </c>
+      <c r="P22" s="16">
+        <v>0</v>
+      </c>
+      <c r="R22" s="47"/>
+      <c r="S22" s="52"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="8">
+      <c r="A23" s="16">
         <v>2</v>
       </c>
-      <c r="B23" s="8">
-        <v>0</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="B23" s="16">
+        <v>0</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="8">
-        <v>0</v>
-      </c>
-      <c r="E23" s="8">
-        <v>0</v>
-      </c>
-      <c r="F23" s="8">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8" t="s">
+      <c r="D23" s="16">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0</v>
+      </c>
+      <c r="G23" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="8">
-        <v>0</v>
-      </c>
-      <c r="I23" s="8">
+      <c r="H23" s="16">
+        <v>0</v>
+      </c>
+      <c r="I23" s="16">
         <v>2</v>
       </c>
-      <c r="J23" s="8">
-        <v>0</v>
-      </c>
-      <c r="K23" s="8">
-        <v>0</v>
-      </c>
-      <c r="L23" s="8">
-        <v>0</v>
-      </c>
-      <c r="M23" s="8" t="s">
+      <c r="J23" s="16">
+        <v>0</v>
+      </c>
+      <c r="K23" s="16">
+        <v>0</v>
+      </c>
+      <c r="L23" s="16">
+        <v>0</v>
+      </c>
+      <c r="M23" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="N23" s="8">
-        <v>0</v>
-      </c>
-      <c r="O23" s="8" t="s">
+      <c r="N23" s="16">
+        <v>0</v>
+      </c>
+      <c r="O23" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="P23" s="8">
-        <v>0</v>
-      </c>
-      <c r="S23" s="26"/>
+      <c r="P23" s="16">
+        <v>0</v>
+      </c>
+      <c r="R23" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="S23" s="66" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="8">
-        <v>0</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="B24" s="16">
+        <v>0</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="8">
-        <v>0</v>
-      </c>
-      <c r="E24" s="8">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8" t="s">
+      <c r="D24" s="16">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0</v>
+      </c>
+      <c r="G24" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="8">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8">
+      <c r="H24" s="16">
+        <v>0</v>
+      </c>
+      <c r="I24" s="16">
         <v>1</v>
       </c>
-      <c r="J24" s="8">
-        <v>0</v>
-      </c>
-      <c r="K24" s="8">
-        <v>0</v>
-      </c>
-      <c r="L24" s="8">
-        <v>0</v>
-      </c>
-      <c r="M24" s="8" t="s">
+      <c r="J24" s="16">
+        <v>0</v>
+      </c>
+      <c r="K24" s="16">
+        <v>0</v>
+      </c>
+      <c r="L24" s="16">
+        <v>0</v>
+      </c>
+      <c r="M24" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="N24" s="8">
-        <v>0</v>
-      </c>
-      <c r="O24" s="8" t="s">
+      <c r="N24" s="16">
+        <v>0</v>
+      </c>
+      <c r="O24" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="P24" s="8">
-        <v>0</v>
-      </c>
-      <c r="S24" s="26"/>
+      <c r="P24" s="16">
+        <v>0</v>
+      </c>
+      <c r="R24" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="S24" s="68" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="8">
-        <v>0</v>
-      </c>
-      <c r="C25" s="8">
-        <v>0</v>
-      </c>
-      <c r="D25" s="8">
-        <v>0</v>
-      </c>
-      <c r="E25" s="8">
+      <c r="B25" s="16">
+        <v>0</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0</v>
+      </c>
+      <c r="D25" s="17">
+        <v>0</v>
+      </c>
+      <c r="E25" s="17">
         <v>1</v>
       </c>
-      <c r="F25" s="8">
-        <v>0</v>
-      </c>
-      <c r="G25" s="8">
+      <c r="F25" s="29">
+        <v>0</v>
+      </c>
+      <c r="G25" s="29">
         <v>10</v>
       </c>
-      <c r="H25" s="8">
-        <v>0</v>
-      </c>
-      <c r="I25" s="8">
-        <v>0</v>
-      </c>
-      <c r="J25" s="8">
-        <v>0</v>
-      </c>
-      <c r="K25" s="8">
+      <c r="H25" s="30">
+        <v>0</v>
+      </c>
+      <c r="I25" s="30">
+        <v>0</v>
+      </c>
+      <c r="J25" s="30">
+        <v>0</v>
+      </c>
+      <c r="K25" s="30">
         <v>2</v>
       </c>
-      <c r="L25" s="8">
-        <v>0</v>
-      </c>
-      <c r="M25" s="8">
+      <c r="L25" s="37">
+        <v>0</v>
+      </c>
+      <c r="M25" s="37">
         <v>11</v>
       </c>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="S25" s="26"/>
-    </row>
-    <row r="26" spans="19:19">
-      <c r="S26" s="26"/>
-    </row>
-    <row r="27" spans="19:19">
-      <c r="S27" s="26"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="R25" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="S25" s="70" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="18:19">
+      <c r="R26" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="S26" s="52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="18:19">
+      <c r="R27" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="S27" s="42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="18:19">
+      <c r="R28" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="S28" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="19:19">
+      <c r="S29" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="19:19">
+      <c r="S30" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="19:19">
+      <c r="S31" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="19:19">
+      <c r="S32" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="19:19">
+      <c r="S33" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="19:19">
+      <c r="S34" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="19:19">
+      <c r="S35" s="29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="19:19">
+      <c r="S36" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="19:19">
+      <c r="S37" s="37" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
